--- a/results/BS_v6.xlsx
+++ b/results/BS_v6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aledi\Dropbox\1 - RESEARCH PROJECTS\2b_wealth_tax_LFO\SHARED_HAOMIN\Codes\BueraShin2013_v6\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aledi\Documents\GitHub\BueraShin2013_v6\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499725DE-D94A-4E49-986D-BF0A314A11E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132DC240-60E2-456A-A4AF-035A3EEC0001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t xml:space="preserve">MODEL PARAMETERS </t>
   </si>
@@ -442,198 +442,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2121CBF9-979F-4501-BA91-F24ABDB6AFDE}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
         <v>0.90400000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
         <v>0.89400000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
         <v>0.65767699999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>0.65767699999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>0.36468600000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0.36468600000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
         <v>0.100355</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0.100355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>4.7600000000000003E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>4.7600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
         <v>1.193E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>1.193E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
         <v>-1.65E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>-1.65E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <v>5.3256999999999999E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>5.3256999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <v>2.4228619999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>2.4228619999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
         <v>1.715077</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1.715077</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
         <v>0.74526700000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>0.74526700000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>0.94657800000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0.94657800000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>0.30759799999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>0.30759799999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
         <v>0.262853</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>0.262853</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="C24">
         <v>0.17199999999999999</v>
       </c>
     </row>
